--- a/index.xlsx
+++ b/index.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AC$107</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$AE$109</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="223">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -40,6 +40,12 @@
     <t xml:space="preserve">Grad</t>
   </si>
   <si>
+    <t xml:space="preserve">FirstFound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FirstAscent</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lat</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t xml:space="preserve">B) Wand - Schild - Wand</t>
   </si>
   <si>
+    <t xml:space="preserve">Stevie</t>
+  </si>
+  <si>
     <t xml:space="preserve">Neuer Markt Wand</t>
   </si>
   <si>
@@ -181,6 +190,9 @@
     <t xml:space="preserve">A) Zwischen den Pfeilern verkeilen und hoch arbeiten (maximal 2-3 Meter)</t>
   </si>
   <si>
+    <t xml:space="preserve">Lukas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mercure Ecke</t>
   </si>
   <si>
@@ -232,6 +244,12 @@
     <t xml:space="preserve">B) Start von der Kante, ohne Bodenberührung zur Säule, drum rum, zum Fenstersims und zurück zur Kante</t>
   </si>
   <si>
+    <t xml:space="preserve">Jonas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lange Brücke Starterplatte</t>
   </si>
   <si>
@@ -349,6 +367,18 @@
     <t xml:space="preserve">A) Vom Gehweg unten mit Wallrun hoch zum Wartungsgang unter der Brücke (auf die andere Havelseite und zurück)</t>
   </si>
   <si>
+    <t xml:space="preserve">Schiffbauergasse Brücke </t>
+  </si>
+  <si>
+    <t xml:space="preserve">schiff_bruecke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Vom Boden bis unten die Brücken-Brüstung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) Wie A und bis auf die Brücke (nur mit Seilsicherung probieren)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schiffbauergasse Offizze</t>
   </si>
   <si>
@@ -608,6 +638,9 @@
   </si>
   <si>
     <t xml:space="preserve">B) Nach oben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oli</t>
   </si>
   <si>
     <t xml:space="preserve">Westufer Bogen</t>
@@ -927,14 +960,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMK1048576"/>
+  <dimension ref="A1:AMM109"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
-      <selection pane="bottomRight" activeCell="E78" activeCellId="0" sqref="E78"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A83" activeCellId="0" sqref="A83"/>
+      <selection pane="bottomRight" activeCell="I88" activeCellId="0" sqref="I88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -943,11 +976,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="2" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="8" style="1" width="25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="30" style="1" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1026" min="1025" style="3" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="10" style="1" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1026" min="32" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1028" min="1027" style="3" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -966,14 +999,18 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="H1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
@@ -994,31 +1031,33 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
       <c r="AC1" s="4"/>
-      <c r="AMK1" s="3"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AMM1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="H2" s="2" t="n">
         <v>52.39586</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="I2" s="2" t="n">
         <v>13.061183</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>3</v>
@@ -1026,55 +1065,61 @@
     </row>
     <row r="4" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="H4" s="2" t="n">
         <v>52.396076</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="I4" s="2" t="n">
         <v>13.061741</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="H6" s="2" t="n">
         <v>52.396226</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="I6" s="2" t="n">
         <v>13.057546</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>4</v>
@@ -1082,27 +1127,27 @@
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="H8" s="2" t="n">
         <v>52.396527</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="I8" s="2" t="n">
         <v>13.057026</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>4</v>
@@ -1110,27 +1155,27 @@
     </row>
     <row r="10" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="2" t="n">
+      <c r="H10" s="2" t="n">
         <v>52.397503</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="I10" s="2" t="n">
         <v>13.055878</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>3</v>
@@ -1138,36 +1183,36 @@
     </row>
     <row r="12" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="AMK12" s="3"/>
+      <c r="AMM12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F13" s="2" t="n">
+      <c r="H13" s="2" t="n">
         <v>52.397614</v>
       </c>
-      <c r="G13" s="2" t="n">
+      <c r="I13" s="2" t="n">
         <v>13.055776</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>2</v>
@@ -1175,7 +1220,7 @@
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>3</v>
@@ -1183,47 +1228,53 @@
     </row>
     <row r="16" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="n">
         <v>52.397882</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="I16" s="2" t="n">
         <v>13.053673</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="H17" s="2" t="n">
         <v>52.397827</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="I17" s="2" t="n">
         <v>13.053555</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>4</v>
@@ -1231,27 +1282,33 @@
     </row>
     <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="2" t="n">
         <v>52.39783</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="I19" s="2" t="n">
         <v>13.053474</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>4</v>
@@ -1259,7 +1316,7 @@
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>5</v>
@@ -1267,27 +1324,27 @@
     </row>
     <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="H22" s="2" t="n">
         <v>52.397823</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="I22" s="2" t="n">
         <v>13.05363</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>5</v>
@@ -1295,41 +1352,47 @@
     </row>
     <row r="24" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="2" t="n">
         <v>52.397244</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="I24" s="2" t="n">
         <v>13.053539</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="H25" s="2" t="n">
         <v>52.3940376649039</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="I25" s="2" t="n">
         <v>13.0603478587157</v>
       </c>
     </row>
@@ -1337,7 +1400,7 @@
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>5</v>
@@ -1345,27 +1408,27 @@
     </row>
     <row r="27" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F27" s="2" t="n">
+      <c r="H27" s="2" t="n">
         <v>52.393375</v>
       </c>
-      <c r="G27" s="2" t="n">
+      <c r="I27" s="2" t="n">
         <v>13.059547</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>4</v>
@@ -1373,27 +1436,27 @@
     </row>
     <row r="29" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="H29" s="2" t="n">
         <v>52.393457</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="I29" s="2" t="n">
         <v>13.059466</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>4</v>
@@ -1401,7 +1464,7 @@
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>5</v>
@@ -1409,55 +1472,61 @@
     </row>
     <row r="32" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="H32" s="2" t="n">
         <v>52.393365</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="I32" s="2" t="n">
         <v>13.059649</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="H34" s="2" t="n">
         <v>52.394134</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="I34" s="2" t="n">
         <v>13.061467</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>3</v>
@@ -1465,27 +1534,27 @@
     </row>
     <row r="36" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="H36" s="2" t="n">
         <v>52.394125</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="I36" s="2" t="n">
         <v>13.061065</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="7" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>3</v>
@@ -1493,47 +1562,50 @@
     </row>
     <row r="38" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="G38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="2" t="n">
         <v>52.394092</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="I38" s="2" t="n">
         <v>13.061162</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="H39" s="2" t="n">
         <v>52.393758</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="I39" s="2" t="n">
         <v>13.061784</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>5</v>
@@ -1541,27 +1613,27 @@
     </row>
     <row r="41" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="H41" s="2" t="n">
         <v>52.392822</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="I41" s="2" t="n">
         <v>13.063313</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>3</v>
@@ -1569,63 +1641,72 @@
     </row>
     <row r="43" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F43" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="H44" s="2" t="n">
         <v>52.39235</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="I44" s="2" t="n">
         <v>13.062733</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="F45" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="H46" s="2" t="n">
         <v>52.392354</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="I46" s="2" t="n">
         <v>13.062556</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>4</v>
@@ -1633,47 +1714,53 @@
     </row>
     <row r="48" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="2" t="n">
         <v>52.392174</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="I48" s="2" t="n">
         <v>13.062583</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="H49" s="2" t="n">
         <v>52.400347</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="I49" s="2" t="n">
         <v>13.061044</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>4</v>
@@ -1681,7 +1768,7 @@
     </row>
     <row r="51" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>5</v>
@@ -1689,179 +1776,210 @@
     </row>
     <row r="52" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="H52" s="2" t="n">
         <v>52.400946</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="I52" s="2" t="n">
         <v>13.073205</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F53" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>52.4010637282117</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>13.0733306354104</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D55" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="2" t="n">
         <v>52.40309</v>
       </c>
-      <c r="G53" s="2" t="n">
+      <c r="I55" s="2" t="n">
         <v>13.074181</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D54" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D55" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F55" s="2" t="n">
-        <v>52.403558</v>
-      </c>
-      <c r="G55" s="2" t="n">
-        <v>13.072904</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F57" s="2" t="n">
-        <v>52.401692</v>
-      </c>
-      <c r="G57" s="2" t="n">
-        <v>13.072641</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>52.403558</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>13.072904</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2" t="n">
-        <v>52.402939</v>
-      </c>
-      <c r="G58" s="2" t="n">
-        <v>13.074562</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>52.401692</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>13.072641</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>52.402939</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>13.074562</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D61" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H61" s="2" t="n">
         <v>52.403198</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="I61" s="2" t="n">
         <v>13.072518</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>128</v>
-      </c>
+    <row r="62" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F62" s="2" t="n">
-        <v>52.404477</v>
-      </c>
-      <c r="G62" s="2" t="n">
-        <v>13.044591</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>4</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>5</v>
@@ -1869,590 +1987,658 @@
     </row>
     <row r="64" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" s="2" t="n">
-        <v>52.396049</v>
-      </c>
-      <c r="G64" s="2" t="n">
-        <v>13.05003</v>
+        <v>3</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>52.404477</v>
+      </c>
+      <c r="I64" s="2" t="n">
+        <v>13.044591</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="D65" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="C66" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="D66" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="AMK66" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>52.396049</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>13.05003</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>137</v>
-      </c>
       <c r="C67" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="F67" s="2" t="n">
+    </row>
+    <row r="68" s="1" customFormat="true" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AMM68" s="3"/>
+    </row>
+    <row r="69" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H69" s="2" t="n">
         <v>52.396121</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="I69" s="2" t="n">
         <v>13.049124</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D68" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" s="1" t="n">
+    <row r="70" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D70" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F70" s="2" t="n">
+    <row r="72" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H72" s="2" t="n">
         <v>52.393018</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="I72" s="2" t="n">
         <v>13.044462</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="1" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F72" s="2" t="n">
-        <v>52.388248</v>
-      </c>
-      <c r="G72" s="2" t="n">
-        <v>13.022323</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>156</v>
+      </c>
       <c r="C74" s="7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>52.388248</v>
+      </c>
+      <c r="I74" s="2" t="n">
+        <v>13.022323</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="C75" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>3</v>
-      </c>
-      <c r="F75" s="2" t="n">
-        <v>52.381638</v>
-      </c>
-      <c r="G75" s="2" t="n">
-        <v>13.018777</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>161</v>
+      </c>
       <c r="C77" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="D77" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>52.381638</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>13.018777</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C78" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D78" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C79" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D79" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D78" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F78" s="2" t="n">
+    <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D80" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" s="2" t="n">
         <v>52.375095</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="I80" s="2" t="n">
         <v>13.006278</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="D79" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="1" t="n">
+    <row r="81" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="D81" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="true" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D82" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="AMK80" s="3"/>
-    </row>
-    <row r="81" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D81" s="1" t="n">
+      <c r="AMM82" s="3"/>
+    </row>
+    <row r="83" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83" s="1" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F82" s="2" t="n">
+    <row r="84" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H84" s="2" t="n">
         <v>52.370123</v>
       </c>
-      <c r="G82" s="2" t="n">
+      <c r="I84" s="2" t="n">
         <v>13.016165</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D83" s="1" t="n">
+    <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D85" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="D84" s="1" t="n">
+      <c r="F85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D86" s="1" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D85" s="1" t="n">
+      <c r="F86" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F85" s="2" t="n">
-        <v>52.371</v>
-      </c>
-      <c r="G85" s="2" t="n">
-        <v>13.018</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" s="1" t="n">
+      <c r="F87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>52.3700259270234</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>13.0161837666198</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="2" t="n">
         <v>52.4008076425312</v>
       </c>
-      <c r="G86" s="2" t="n">
+      <c r="I88" s="2" t="n">
         <v>13.0134512281782</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D87" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F87" s="2" t="n">
+    <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H89" s="2" t="n">
         <v>52.409687</v>
       </c>
-      <c r="G87" s="2" t="n">
+      <c r="I89" s="2" t="n">
         <v>13.018101</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D88" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D89" s="1" t="n">
+    <row r="90" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C90" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D91" s="1" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D90" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F90" s="2" t="n">
+    <row r="92" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="H92" s="2" t="n">
         <v>52.407511</v>
       </c>
-      <c r="G90" s="2" t="n">
+      <c r="I92" s="2" t="n">
         <v>12.976436</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="D91" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="D92" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>183</v>
-      </c>
+    <row r="93" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D93" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F93" s="2" t="n">
-        <v>52.417053</v>
-      </c>
-      <c r="G93" s="2" t="n">
-        <v>13.049741</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D94" s="1" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>193</v>
+      </c>
       <c r="C95" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>188</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>52.417053</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>13.049741</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D96" s="1" t="n">
         <v>4</v>
-      </c>
-      <c r="F96" s="2" t="n">
-        <v>52.418761</v>
-      </c>
-      <c r="G96" s="2" t="n">
-        <v>13.053432</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D97" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F98" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>52.418761</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>13.053432</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C99" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H100" s="2" t="n">
         <v>52.4209755535962</v>
       </c>
-      <c r="G98" s="2" t="n">
+      <c r="I100" s="2" t="n">
         <v>13.0466508865356</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C99" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D99" s="1" t="n">
+    <row r="101" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C101" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D100" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F100" s="2" t="n">
+      <c r="F101" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H102" s="2" t="n">
         <v>52.389705</v>
       </c>
-      <c r="G100" s="2" t="n">
+      <c r="I102" s="2" t="n">
         <v>13.036829</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C101" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="D101" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C102" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D102" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
     <row r="103" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B103" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="C103" s="7" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="D103" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F103" s="2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H105" s="2" t="n">
         <v>52.38981</v>
       </c>
-      <c r="G103" s="2" t="n">
+      <c r="I105" s="2" t="n">
         <v>13.035042</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C104" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="D104" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F105" s="2" t="n">
-        <v>52.4101095051543</v>
-      </c>
-      <c r="G105" s="2" t="n">
-        <v>13.0387169122696</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>209</v>
-      </c>
+    <row r="106" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C106" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F106" s="2" t="n">
-        <v>52.4054363793086</v>
-      </c>
-      <c r="G106" s="2" t="n">
-        <v>13.0274999141693</v>
+        <v>214</v>
+      </c>
+      <c r="D106" s="1" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F107" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>52.4101095051543</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>13.0387169122696</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>52.4054363793086</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>13.0274999141693</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="H109" s="2" t="n">
         <v>52.4026152471934</v>
       </c>
-      <c r="G107" s="2" t="n">
+      <c r="I109" s="2" t="n">
         <v>13.0531257390976</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AC107"/>
+  <autoFilter ref="A1:AE109"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511805555555556"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/index.xlsx
+++ b/index.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="277">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -818,6 +818,60 @@
   </si>
   <si>
     <t xml:space="preserve">hegel_felsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokremise Säulen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lokremise_saeulen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Geländer – kurze Seite – Geländer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) Geländer – lange Seite – schräges Geländer – Geländer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) Geländer – schräges Geländer – lange Seite – Geländer</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">D) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Geländer – lange Seite – Geländer</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokremise Wand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lokremise_wand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A) Von unten hoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B) Von oben runter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C) Von oben runter mit Zusatzregel: Alle Tritte müssen zuerst mit der Hand angetippt werden</t>
   </si>
 </sst>
 </file>
@@ -1096,17 +1150,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B113" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A113" activeCellId="0" sqref="A113"/>
-      <selection pane="bottomRight" activeCell="C136" activeCellId="0" sqref="C136"/>
+      <selection pane="bottomRight" activeCell="C143" activeCellId="0" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.67"/>
@@ -1121,7 +1175,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1028" min="1027" style="3" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1325,6 +1379,8 @@
       <c r="D12" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
@@ -2285,7 +2341,7 @@
       <c r="H73" s="2" t="n">
         <v>52.3916071797145</v>
       </c>
-      <c r="I73" s="8" t="n">
+      <c r="I73" s="2" t="n">
         <v>13.0932033061981</v>
       </c>
     </row>
@@ -2305,7 +2361,7 @@
       <c r="H74" s="2" t="n">
         <v>52.3916170008022</v>
       </c>
-      <c r="I74" s="8" t="n">
+      <c r="I74" s="2" t="n">
         <v>13.0941474437714</v>
       </c>
     </row>
@@ -2325,7 +2381,7 @@
       <c r="H75" s="2" t="n">
         <v>52.3914860527868</v>
       </c>
-      <c r="I75" s="8" t="n">
+      <c r="I75" s="2" t="n">
         <v>13.0948394536972</v>
       </c>
     </row>
@@ -2460,6 +2516,8 @@
       <c r="D84" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
     </row>
     <row r="85" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
@@ -2638,6 +2696,8 @@
       <c r="D98" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C99" s="1" t="s">
@@ -3169,6 +3229,113 @@
       </c>
       <c r="I133" s="2" t="n">
         <v>13.0531257390976</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>52.3908532582071</v>
+      </c>
+      <c r="I134" s="8" t="n">
+        <v>13.0625375440511</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C135" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I135" s="8"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C136" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I136" s="8"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C137" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I137" s="8"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>52.3910283880928</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>13.0625648746181</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C139" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D139" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C140" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -3178,7 +3345,7 @@
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
-    <oddFooter>&amp;R&amp;"Calibri,Regular"&amp;22RESTRICTED</oddFooter>
+    <oddFooter>&amp;R&amp;"Calibri,Standard"&amp;22RESTRICTED</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
